--- a/Cartes/VCU/PIN connecteur.xlsx
+++ b/Cartes/VCU/PIN connecteur.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_ECL\EPSA\Saison 2023\Git Cloning\ELIZ-2022\Cartes\VCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97425BB-8A0D-4CC8-96A6-77A0D785CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6772BF-697A-465C-962C-27B92C1ECCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="8490" xr2:uid="{8FE1664C-AC7C-4238-8AAD-64BB7996214B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FE1664C-AC7C-4238-8AAD-64BB7996214B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>PIN VCU</t>
   </si>
@@ -192,13 +192,19 @@
   </si>
   <si>
     <t>LSO06</t>
+  </si>
+  <si>
+    <t>Présent surla carte VCU</t>
+  </si>
+  <si>
+    <t>SC Relays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +224,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,9 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,18 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0745A3-645E-4B4F-85D4-B09D86327908}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +602,11 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>48</v>
       </c>
@@ -592,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -600,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -608,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -616,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -624,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
       </c>
@@ -632,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -640,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
@@ -648,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>47</v>
       </c>
@@ -656,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>66</v>
       </c>
@@ -664,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -672,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>56</v>
       </c>
@@ -683,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -694,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>57</v>
       </c>
@@ -705,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>76</v>
       </c>
@@ -716,7 +741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>54</v>
       </c>
@@ -727,7 +752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>73</v>
       </c>
@@ -738,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>59</v>
       </c>
@@ -746,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>51</v>
       </c>
@@ -754,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>108</v>
       </c>
@@ -765,7 +790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -776,7 +801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43</v>
       </c>
@@ -787,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>98</v>
       </c>
@@ -797,8 +822,9 @@
       <c r="C24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>107</v>
       </c>
@@ -808,8 +834,9 @@
       <c r="C25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>99</v>
       </c>
@@ -819,8 +846,9 @@
       <c r="C26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>106</v>
       </c>
@@ -830,8 +858,9 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95</v>
       </c>
@@ -841,8 +870,9 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -853,7 +883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>61</v>
       </c>
@@ -864,7 +894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>62</v>
       </c>
@@ -875,7 +905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>79</v>
       </c>
@@ -886,7 +916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>37</v>
       </c>
@@ -897,7 +927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>96</v>
       </c>
@@ -907,6 +937,13 @@
       <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
